--- a/openatlas/static/import/example.xlsx
+++ b/openatlas/static/import/example.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -28,22 +31,31 @@
     <t xml:space="preserve">description</t>
   </si>
   <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King Arthur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King Arthur was a legendary British leader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">person_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lancelot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">person_2</t>
+    <t xml:space="preserve">northing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">easting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">place_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vienna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capital of Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.20849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.37208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">place_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">London</t>
   </si>
 </sst>
 </file>
@@ -139,18 +151,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.94"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.91"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -163,30 +177,42 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/openatlas/static/import/example.xlsx
+++ b/openatlas/static/import/example.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -37,6 +37,18 @@
     <t xml:space="preserve">easting</t>
   </si>
   <si>
+    <t xml:space="preserve">begin_from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">begin_to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end_from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end_to</t>
+  </si>
+  <si>
     <t xml:space="preserve">place_1</t>
   </si>
   <si>
@@ -56,20 +68,25 @@
   </si>
   <si>
     <t xml:space="preserve">London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1900-01-00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -129,19 +146,23 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -151,20 +172,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.91"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="6" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -183,30 +205,57 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>-146086</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>-145721</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>52963</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>54788</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
